--- a/medicine/Psychotrope/Brauerei_Winkler/Brauerei_Winkler.xlsx
+++ b/medicine/Psychotrope/Brauerei_Winkler/Brauerei_Winkler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brauerei Winkler est une brasserie à Amberg.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondée en 1617 sous le nom de "Weissbräugesellschaft"[1], la brasserie est toujours l'une des plus anciennes brasseries privées de bière blanche de Bavière. Dès le milieu du XVIIe siècle, elle devient la plus grande brasserie d'Amberg. Au siècle suivant, cependant, elle dépasse de nouveau les autres brasseries. Au XXe siècle, la brasserie devient le "Bürgerbräu Amberg".
-Le brasseur Josef Winkler reprend la brasserie et le restaurant en 1913[1]. Ses descendants continuent à développer la brasserie. Maximilian Winkler, la quatrième génération, travaille dans l'entreprise familiale depuis 2016.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondée en 1617 sous le nom de "Weissbräugesellschaft", la brasserie est toujours l'une des plus anciennes brasseries privées de bière blanche de Bavière. Dès le milieu du XVIIe siècle, elle devient la plus grande brasserie d'Amberg. Au siècle suivant, cependant, elle dépasse de nouveau les autres brasseries. Au XXe siècle, la brasserie devient le "Bürgerbräu Amberg".
+Le brasseur Josef Winkler reprend la brasserie et le restaurant en 1913. Ses descendants continuent à développer la brasserie. Maximilian Winkler, la quatrième génération, travaille dans l'entreprise familiale depuis 2016.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La gamme de produits de la brasserie comprend notamment :
 Urhell
